--- a/BalanceSheet/TTWO_bal.xlsx
+++ b/BalanceSheet/TTWO_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>814000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-7135000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-131000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4801000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>15752000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>39293000.0</v>
@@ -2184,19 +2184,19 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>-67307000.0</v>
+        <v>100000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>37863000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>144220000.0</v>
+        <v>56000000.0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>37672000.0</v>
+        <v>66000000.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-116944000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>114946000.0</v>
@@ -3351,7 +3351,7 @@
         <v>-121000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-3486000.0</v>
+        <v>-112000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>-111000000.0</v>
